--- a/database/roca_andiroba.xlsx
+++ b/database/roca_andiroba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7A42FD-0AEA-49F1-A7BD-B83CC96F119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA139FCF-1C53-434E-81D2-18AD0B759DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="180">
   <si>
     <t>id_species</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Plinia cauliflora</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>10-10-10</t>
   </si>
   <si>
     <t>Jambo amarelo</t>
@@ -576,19 +582,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -611,10 +611,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +624,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,24 +944,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
@@ -967,61 +970,61 @@
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1041,7 +1044,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1064,7 +1067,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1087,7 +1090,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1110,7 +1113,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1133,7 +1136,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1142,7 +1145,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1179,7 +1182,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1202,7 +1205,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1225,7 +1228,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1248,7 +1251,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1271,7 +1274,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1294,7 +1297,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1317,7 +1320,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1337,7 +1340,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1359,8 +1362,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1379,8 +1382,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1402,8 +1405,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1425,8 +1428,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1445,8 +1448,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1465,8 +1468,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3">
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1485,8 +1488,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1508,8 +1511,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1530,19 +1533,49 @@
       <c r="G24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -1554,18 +1587,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1577,18 +1610,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -1600,18 +1633,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3">
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -1623,21 +1656,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -1646,15 +1679,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -1666,18 +1699,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3">
+    <row r="31" spans="1:17">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -1689,18 +1722,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3">
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
@@ -1713,40 +1746,40 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -1756,17 +1789,17 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
@@ -1779,17 +1812,17 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -1802,20 +1835,20 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -1825,14 +1858,14 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -1845,20 +1878,20 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -1868,17 +1901,17 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>56</v>
@@ -1891,17 +1924,17 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
@@ -1914,20 +1947,20 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
@@ -1937,17 +1970,17 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -1960,60 +1993,60 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -2034,41 +2067,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD986B68-EE52-461E-8EE7-8D066622A88A}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -2076,10 +2109,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -2087,10 +2120,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -2098,10 +2131,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="1">
@@ -2109,10 +2142,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -2120,10 +2153,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="1">
@@ -2131,10 +2164,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="1">
@@ -2142,10 +2175,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="1">
@@ -2153,10 +2186,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="1">
@@ -2164,10 +2197,10 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="1">
@@ -2175,10 +2208,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="1">
@@ -2186,10 +2219,10 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="1">
@@ -2197,10 +2230,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="1">
@@ -2208,10 +2241,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="1">
@@ -2219,10 +2252,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -2230,10 +2263,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -2241,10 +2274,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="1">
@@ -2252,10 +2285,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="1">
@@ -2263,10 +2296,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -2274,10 +2307,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" s="1">
@@ -2285,10 +2318,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" s="1">
@@ -2296,10 +2329,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="1">
@@ -2307,44 +2340,44 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>44136</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>-19650100</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>-44229120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>44136</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>-19650087</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>-44229043</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="1">
@@ -2352,10 +2385,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="1">
@@ -2363,10 +2396,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="1">
@@ -2374,10 +2407,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="1">
@@ -2385,10 +2418,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="1">
@@ -2396,10 +2429,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="1">
@@ -2407,10 +2440,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="1">
@@ -2418,10 +2451,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="1">
@@ -2429,10 +2462,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="1">
@@ -2440,10 +2473,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="1">
@@ -2451,10 +2484,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="1">
@@ -2462,10 +2495,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="1">
@@ -2473,10 +2506,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="1">
@@ -2484,10 +2517,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="1">
@@ -2495,27 +2528,27 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>44835</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>-19650241</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>-44228893</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="1">
@@ -2523,10 +2556,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="1">
@@ -2534,10 +2567,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="1">
@@ -2545,10 +2578,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="1">
@@ -2556,10 +2589,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="1">
@@ -2567,10 +2600,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="1">
@@ -2578,10 +2611,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="1">
@@ -2589,10 +2622,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>45</v>
       </c>
       <c r="C48" s="1">
@@ -2618,61 +2651,61 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="G8" s="4" t="s">
-        <v>176</v>
+      <c r="G8" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="G9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/database/roca_andiroba.xlsx
+++ b/database/roca_andiroba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA139FCF-1C53-434E-81D2-18AD0B759DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B674B437-51AF-4982-8FA5-4D6A7AE88C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -582,6 +582,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -611,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -623,11 +626,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,9 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,8 +966,8 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
@@ -998,10 +1004,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1539,10 +1545,10 @@
       <c r="I24" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>100</v>
       </c>
       <c r="L24">
@@ -2067,9 +2073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD986B68-EE52-461E-8EE7-8D066622A88A}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,7 +2083,7 @@
     <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2090,10 +2096,10 @@
       <c r="C1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2349,11 +2355,11 @@
       <c r="C24" s="1">
         <v>44136</v>
       </c>
-      <c r="D24" s="5">
-        <v>-19650100</v>
-      </c>
-      <c r="E24" s="5">
-        <v>-44229120</v>
+      <c r="D24" s="8">
+        <v>-19.650099999999998</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-44.229120000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2366,11 +2372,11 @@
       <c r="C25" s="1">
         <v>44136</v>
       </c>
-      <c r="D25" s="5">
-        <v>-19650087</v>
-      </c>
-      <c r="E25" s="5">
-        <v>-44229043</v>
+      <c r="D25" s="8">
+        <v>-19.650086999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-44.229042999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2537,11 +2543,11 @@
       <c r="C40" s="1">
         <v>44835</v>
       </c>
-      <c r="D40" s="5">
-        <v>-19650241</v>
-      </c>
-      <c r="E40" s="5">
-        <v>-44228893</v>
+      <c r="D40" s="8">
+        <v>-19.650241000000001</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-44.228892999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5">
